--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N2">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q2">
-        <v>6.648762367192831</v>
+        <v>69.19000487335265</v>
       </c>
       <c r="R2">
-        <v>6.648762367192831</v>
+        <v>622.710043860174</v>
       </c>
       <c r="S2">
-        <v>0.0005643081392975351</v>
+        <v>0.00450169567158579</v>
       </c>
       <c r="T2">
-        <v>0.0005643081392975351</v>
+        <v>0.00450169567158579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N3">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q3">
-        <v>38.88767995417545</v>
+        <v>69.11193103301733</v>
       </c>
       <c r="R3">
-        <v>38.88767995417545</v>
+        <v>622.007379297156</v>
       </c>
       <c r="S3">
-        <v>0.003300559277741795</v>
+        <v>0.004496615968675738</v>
       </c>
       <c r="T3">
-        <v>0.003300559277741795</v>
+        <v>0.00449661596867574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N4">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q4">
-        <v>57.46211410421689</v>
+        <v>113.3988458265477</v>
       </c>
       <c r="R4">
-        <v>57.46211410421689</v>
+        <v>1020.589612438929</v>
       </c>
       <c r="S4">
-        <v>0.004877048824944541</v>
+        <v>0.007378046790928892</v>
       </c>
       <c r="T4">
-        <v>0.004877048824944541</v>
+        <v>0.007378046790928895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N5">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q5">
-        <v>47.14579991380851</v>
+        <v>85.008707701212</v>
       </c>
       <c r="R5">
-        <v>47.14579991380851</v>
+        <v>765.078369310908</v>
       </c>
       <c r="S5">
-        <v>0.004001460295277171</v>
+        <v>0.005530904820806446</v>
       </c>
       <c r="T5">
-        <v>0.004001460295277171</v>
+        <v>0.005530904820806447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N6">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q6">
-        <v>434.7829129208685</v>
+        <v>2557.91052027173</v>
       </c>
       <c r="R6">
-        <v>434.7829129208685</v>
+        <v>23021.19468244557</v>
       </c>
       <c r="S6">
-        <v>0.03690183571597961</v>
+        <v>0.1664248288244561</v>
       </c>
       <c r="T6">
-        <v>0.03690183571597961</v>
+        <v>0.1664248288244562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N7">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q7">
-        <v>2542.984368134284</v>
+        <v>2555.024179998777</v>
       </c>
       <c r="R7">
-        <v>2542.984368134284</v>
+        <v>22995.21761998899</v>
       </c>
       <c r="S7">
-        <v>0.2158336691540469</v>
+        <v>0.1662370354352627</v>
       </c>
       <c r="T7">
-        <v>0.2158336691540469</v>
+        <v>0.1662370354352628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N8">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q8">
-        <v>3757.623445244445</v>
+        <v>4192.283282207304</v>
       </c>
       <c r="R8">
-        <v>3757.623445244445</v>
+        <v>37730.54953986573</v>
       </c>
       <c r="S8">
-        <v>0.3189251438778617</v>
+        <v>0.2727617022157844</v>
       </c>
       <c r="T8">
-        <v>0.3189251438778617</v>
+        <v>0.2727617022157845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N9">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q9">
-        <v>3083.008097816048</v>
+        <v>3142.717913398784</v>
       </c>
       <c r="R9">
-        <v>3083.008097816048</v>
+        <v>28284.46122058906</v>
       </c>
       <c r="S9">
-        <v>0.2616677310806572</v>
+        <v>0.2044740371627163</v>
       </c>
       <c r="T9">
-        <v>0.2616677310806572</v>
+        <v>0.2044740371627163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N10">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q10">
-        <v>6.141384693638144</v>
+        <v>44.35024362855955</v>
       </c>
       <c r="R10">
-        <v>6.141384693638144</v>
+        <v>399.152192657036</v>
       </c>
       <c r="S10">
-        <v>0.0005212448840520866</v>
+        <v>0.002885551173784554</v>
       </c>
       <c r="T10">
-        <v>0.0005212448840520866</v>
+        <v>0.002885551173784555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N11">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q11">
-        <v>35.92009899768846</v>
+        <v>44.30019891695378</v>
       </c>
       <c r="R11">
-        <v>35.92009899768846</v>
+        <v>398.701790252584</v>
       </c>
       <c r="S11">
-        <v>0.003048688328641081</v>
+        <v>0.002882295124561349</v>
       </c>
       <c r="T11">
-        <v>0.003048688328641081</v>
+        <v>0.00288229512456135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N12">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q12">
-        <v>53.07708841649012</v>
+        <v>72.68775958045623</v>
       </c>
       <c r="R12">
-        <v>53.07708841649012</v>
+        <v>654.1898362241061</v>
       </c>
       <c r="S12">
-        <v>0.004504873441023015</v>
+        <v>0.004729269397791744</v>
       </c>
       <c r="T12">
-        <v>0.004504873441023015</v>
+        <v>0.004729269397791745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N13">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q13">
-        <v>43.54802863592744</v>
+        <v>54.48990651176801</v>
       </c>
       <c r="R13">
-        <v>43.54802863592744</v>
+        <v>490.409158605912</v>
       </c>
       <c r="S13">
-        <v>0.003696102470269451</v>
+        <v>0.003545266064630851</v>
       </c>
       <c r="T13">
-        <v>0.003696102470269451</v>
+        <v>0.003545266064630852</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H14">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N14">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q14">
-        <v>74.1695368686846</v>
+        <v>486.8627128085872</v>
       </c>
       <c r="R14">
-        <v>74.1695368686846</v>
+        <v>4381.764415277285</v>
       </c>
       <c r="S14">
-        <v>0.006295077343935617</v>
+        <v>0.03167665287665027</v>
       </c>
       <c r="T14">
-        <v>0.006295077343935617</v>
+        <v>0.03167665287665027</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H15">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N15">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q15">
-        <v>433.8072340095669</v>
+        <v>486.3133380574997</v>
       </c>
       <c r="R15">
-        <v>433.8072340095669</v>
+        <v>4376.820042517496</v>
       </c>
       <c r="S15">
-        <v>0.03681902578526149</v>
+        <v>0.03164090901532845</v>
       </c>
       <c r="T15">
-        <v>0.03681902578526149</v>
+        <v>0.03164090901532846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H16">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N16">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q16">
-        <v>641.0122899917545</v>
+        <v>797.9428504092907</v>
       </c>
       <c r="R16">
-        <v>641.0122899917545</v>
+        <v>7181.485653683616</v>
       </c>
       <c r="S16">
-        <v>0.05440538143113455</v>
+        <v>0.0519163986537565</v>
       </c>
       <c r="T16">
-        <v>0.05440538143113455</v>
+        <v>0.05191639865375651</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H17">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N17">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q17">
-        <v>525.929782385533</v>
+        <v>598.1726713203922</v>
       </c>
       <c r="R17">
-        <v>525.929782385533</v>
+        <v>5383.554041883529</v>
       </c>
       <c r="S17">
-        <v>0.04463784994987627</v>
+        <v>0.03891879080327976</v>
       </c>
       <c r="T17">
-        <v>0.04463784994987627</v>
+        <v>0.03891879080327976</v>
       </c>
     </row>
   </sheetData>
